--- a/Sprint_Project Fix.xlsx
+++ b/Sprint_Project Fix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Kuliah\Semester 7\Prak Pembelajaran Mesin\Kelompok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B053572C-D811-4367-9DC6-3A617628A4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB007158-F1DB-4349-9B51-9C676113D21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C1AAE6AF-26D5-44AF-AE79-077F088EA386}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1AAE6AF-26D5-44AF-AE79-077F088EA386}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,6 +270,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -588,7 +589,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +726,15 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="4">
+        <v>44496</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44502</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44502</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
@@ -733,6 +743,15 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="4">
+        <v>44502</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44507</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44507</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
@@ -741,6 +760,15 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="5">
+        <v>44508</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44512</v>
+      </c>
+      <c r="G8" s="5">
+        <v>44512</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
@@ -749,6 +777,15 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="5">
+        <v>44513</v>
+      </c>
+      <c r="F9" s="5">
+        <v>44517</v>
+      </c>
+      <c r="G9" s="5">
+        <v>44517</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>33</v>
       </c>
@@ -757,6 +794,15 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E10" s="5">
+        <v>44518</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44523</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44523</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>33</v>
       </c>
@@ -764,6 +810,15 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44524</v>
+      </c>
+      <c r="F11" s="5">
+        <v>44529</v>
+      </c>
+      <c r="G11" s="5">
+        <v>44529</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>34</v>
@@ -773,6 +828,12 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44532</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44542</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>34</v>
